--- a/4 семестр (Оптика)/4.3.1/431.xlsx
+++ b/4 семестр (Оптика)/4.3.1/431.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonidbarinov/Desktop/latexlabs/4 семестр (Оптика)/4.3.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD923D17-3E43-D44F-B837-12DBDDBD5ADE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42605F9C-D1D8-5E4B-B2CF-CDD350111FFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{E439FEC2-CB4D-B245-85FB-0348FA1CDA69}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{E439FEC2-CB4D-B245-85FB-0348FA1CDA69}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>m</t>
   </si>
@@ -47,6 +49,12 @@
   </si>
   <si>
     <t>dzm</t>
+  </si>
+  <si>
+    <t>xm</t>
+  </si>
+  <si>
+    <t>dxm</t>
   </si>
 </sst>
 </file>
@@ -550,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A9B90C-5F52-7F4B-9879-705940A7B706}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -636,4 +644,342 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4B14FB-26CA-5E4A-952B-904707304CD0}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>-5</v>
+      </c>
+      <c r="C1">
+        <v>-4</v>
+      </c>
+      <c r="D1">
+        <v>-3</v>
+      </c>
+      <c r="E1">
+        <v>-2</v>
+      </c>
+      <c r="F1">
+        <v>-1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>-5</v>
+      </c>
+      <c r="K1">
+        <v>-4</v>
+      </c>
+      <c r="L1">
+        <v>-3</v>
+      </c>
+      <c r="M1">
+        <v>-2</v>
+      </c>
+      <c r="N1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>-45</v>
+      </c>
+      <c r="C2">
+        <v>-36</v>
+      </c>
+      <c r="D2">
+        <v>-27</v>
+      </c>
+      <c r="E2">
+        <v>-18</v>
+      </c>
+      <c r="F2">
+        <v>-8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>-0.9</v>
+      </c>
+      <c r="K2">
+        <v>-0.72</v>
+      </c>
+      <c r="L2">
+        <v>-0.54</v>
+      </c>
+      <c r="M2">
+        <v>-0.36</v>
+      </c>
+      <c r="N2">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <f>B2*0.02</f>
+        <v>-0.9</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:F3" si="0">C2*0.02</f>
+        <v>-0.72</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>-0.54</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>-0.36</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-0.16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>0.92</v>
+      </c>
+      <c r="K4">
+        <v>0.74</v>
+      </c>
+      <c r="L4">
+        <v>0.54</v>
+      </c>
+      <c r="M4">
+        <v>0.36</v>
+      </c>
+      <c r="N4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f>B5*0.02</f>
+        <v>0.92</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:F6" si="1">C5*0.02</f>
+        <v>0.74</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BFCFEE-99EF-7346-AA46-A2B334824E94}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-5</v>
+      </c>
+      <c r="B2">
+        <v>-0.9</v>
+      </c>
+      <c r="C2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-4</v>
+      </c>
+      <c r="B3">
+        <v>-0.72</v>
+      </c>
+      <c r="C3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-3</v>
+      </c>
+      <c r="B4">
+        <v>-0.54</v>
+      </c>
+      <c r="C4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-2</v>
+      </c>
+      <c r="B5">
+        <v>-0.36</v>
+      </c>
+      <c r="C5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="B6">
+        <v>-0.16</v>
+      </c>
+      <c r="C6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.18</v>
+      </c>
+      <c r="C7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.36</v>
+      </c>
+      <c r="C8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0.54</v>
+      </c>
+      <c r="C9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0.74</v>
+      </c>
+      <c r="C10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0.92</v>
+      </c>
+      <c r="C11">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4 семестр (Оптика)/4.3.1/431.xlsx
+++ b/4 семестр (Оптика)/4.3.1/431.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonidbarinov/Desktop/latexlabs/4 семестр (Оптика)/4.3.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42605F9C-D1D8-5E4B-B2CF-CDD350111FFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50D113F-6387-4146-AB0D-2764CD4E73EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{E439FEC2-CB4D-B245-85FB-0348FA1CDA69}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{E439FEC2-CB4D-B245-85FB-0348FA1CDA69}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H6"/>
+      <selection activeCell="C5" sqref="C5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
@@ -471,27 +471,27 @@
       </c>
       <c r="C4" s="1">
         <f>(C3*10^(-2) * C2*578*10^(-9))^(1/2)*10^3</f>
-        <v>0.12492397688194211</v>
+        <v>0.1766691823720255</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:H4" si="0">(D3*10^(-2) * D2*578*10^(-9))^(1/2)*10^3</f>
-        <v>0.14424978336205571</v>
+        <v>0.1766691823720255</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.14424978336205571</v>
+        <v>0.16656530250925611</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.15205262246998569</v>
+        <v>0.17</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>0.15673225577397909</v>
+        <v>0.17169158395215534</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>0.16127616066858735</v>
+        <v>0.17419816302131316</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -500,53 +500,53 @@
       </c>
       <c r="C5">
         <f>2*C4</f>
-        <v>0.24984795376388422</v>
+        <v>0.353338364744051</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:H5" si="1">2*D4</f>
-        <v>0.28849956672411142</v>
+        <v>0.353338364744051</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.28849956672411142</v>
+        <v>0.33313060501851222</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.30410524493997138</v>
+        <v>0.34</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0.31346451154795818</v>
+        <v>0.34338316790431067</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.32255232133717471</v>
+        <v>0.34839632604262633</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6">
         <f>C5*((0.1/C3)^2)^(1/2)</f>
-        <v>9.2536279171808958E-3</v>
+        <v>1.3086606101631518E-2</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:H6" si="2">D5*((0.1/D3)^2)^(1/2)</f>
-        <v>1.6027753706895079E-2</v>
+        <v>1.9629909152447278E-2</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>2.4041630560342621E-2</v>
+        <v>2.7760883751542689E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>3.041052449399714E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>3.6878177829171556E-2</v>
+        <v>4.0398019753448318E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>4.3006976178289961E-2</v>
+        <v>4.6452843472350173E-2</v>
       </c>
     </row>
   </sheetData>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A9B90C-5F52-7F4B-9879-705940A7B706}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,68 +577,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.24984795376388422</v>
+        <v>0.353338364744051</v>
       </c>
       <c r="C2">
-        <v>9.2536279171808958E-3</v>
+        <v>1.3086606101631518E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.28849956672411142</v>
+        <v>0.353338364744051</v>
       </c>
       <c r="C3">
-        <v>1.6027753706895079E-2</v>
+        <v>1.9629909152447278E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.28849956672411142</v>
+        <v>0.33313060501851222</v>
       </c>
       <c r="C4">
-        <v>2.4041630560342621E-2</v>
+        <v>2.7760883751542689E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0.30410524493997138</v>
+        <v>0.34</v>
       </c>
       <c r="C5">
-        <v>3.041052449399714E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.31346451154795818</v>
+        <v>0.34338316790431067</v>
       </c>
       <c r="C6">
-        <v>3.6878177829171556E-2</v>
+        <v>4.0398019753448318E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.32255232133717471</v>
+        <v>0.34839632604262633</v>
       </c>
       <c r="C7">
-        <v>4.3006976178289961E-2</v>
+        <v>4.6452843472350173E-2</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BFCFEE-99EF-7346-AA46-A2B334824E94}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/4 семестр (Оптика)/4.3.1/431.xlsx
+++ b/4 семестр (Оптика)/4.3.1/431.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonidbarinov/Desktop/latexlabs/4 семестр (Оптика)/4.3.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50D113F-6387-4146-AB0D-2764CD4E73EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CF3B36-0531-784A-9D49-ADBF03B3BD6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{E439FEC2-CB4D-B245-85FB-0348FA1CDA69}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{E439FEC2-CB4D-B245-85FB-0348FA1CDA69}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BF462E-BEC2-9145-A1A5-76F14389B93A}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H6"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A9B90C-5F52-7F4B-9879-705940A7B706}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
